--- a/skrum_docs/04_SpecificDesign/04_Account_初期設定画面仕様書_20170712.xlsx
+++ b/skrum_docs/04_SpecificDesign/04_Account_初期設定画面仕様書_20170712.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/OneDrive/Skrum/06_プロダクト開発/プロダクト資料/03_詳細設計/画面仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Dev/skrum/skrum_docs/04_SpecificDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="初期設定" sheetId="1" r:id="rId1"/>
@@ -3100,9 +3100,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -3117,8 +3117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6985000" y="24225250"/>
-          <a:ext cx="1123950" cy="273050"/>
+          <a:off x="5892800" y="29565600"/>
+          <a:ext cx="1149350" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3427,9 +3427,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -3444,8 +3444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="24638000"/>
-          <a:ext cx="768350" cy="273050"/>
+          <a:off x="6197600" y="29997400"/>
+          <a:ext cx="838200" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3742,13 +3742,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3152337" y="24171182"/>
-          <a:ext cx="3290873" cy="1473498"/>
+          <a:off x="2847770" y="29295690"/>
+          <a:ext cx="2834023" cy="1459517"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 77912"/>
-            <a:gd name="adj2" fmla="val 6542"/>
+            <a:gd name="adj1" fmla="val 68053"/>
+            <a:gd name="adj2" fmla="val 9152"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3877,13 +3877,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -3894,7 +3894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14973300" y="22212300"/>
+          <a:off x="13347700" y="27546300"/>
           <a:ext cx="431800" cy="1155700"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3937,13 +3937,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -3954,7 +3954,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14973300" y="23431500"/>
+          <a:off x="13347700" y="28765500"/>
           <a:ext cx="431800" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3996,14 +3996,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -4014,8 +4014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15748000" y="22580600"/>
-          <a:ext cx="1879600" cy="419100"/>
+          <a:off x="14046200" y="27914600"/>
+          <a:ext cx="1943100" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4063,14 +4063,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
@@ -4081,8 +4081,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15760700" y="23380700"/>
-          <a:ext cx="1879600" cy="419100"/>
+          <a:off x="14046200" y="28714700"/>
+          <a:ext cx="1955800" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4150,7 +4150,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$2:$F$7" spid="_x0000_s1057"/>
+                  <a14:cameraTool cellRange="subsheet!$A$2:$F$7" spid="_x0000_s1061"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4210,7 +4210,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$11:$F$16" spid="_x0000_s1058"/>
+                  <a14:cameraTool cellRange="subsheet!$A$11:$F$16" spid="_x0000_s1062"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4270,7 +4270,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$20:$F$26" spid="_x0000_s1059"/>
+                  <a14:cameraTool cellRange="subsheet!$A$20:$F$26" spid="_x0000_s1063"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4903,9 +4903,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -4920,8 +4920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6578600" y="18084800"/>
-          <a:ext cx="1625600" cy="279400"/>
+          <a:off x="5549900" y="18122900"/>
+          <a:ext cx="1587500" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5331,7 +5331,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6293,6 +6293,71 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
             <a:t>This page is displayed only when "name" field doesn't exist in "company".</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="四角形吹き出し 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12141200" y="15684500"/>
+          <a:ext cx="3162300" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55330"/>
+            <a:gd name="adj2" fmla="val 88418"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>Move to another page (page No.3).</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6593,11 +6658,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6740,7 +6805,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="40" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -6780,7 +6845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="40" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
@@ -6800,7 +6865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="40" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
@@ -6858,7 +6923,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="40" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -6914,7 +6979,7 @@
       </c>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>44</v>
       </c>

--- a/skrum_docs/04_SpecificDesign/04_Account_初期設定画面仕様書_20170712.xlsx
+++ b/skrum_docs/04_SpecificDesign/04_Account_初期設定画面仕様書_20170712.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="初期設定" sheetId="1" r:id="rId1"/>
@@ -3565,7 +3565,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> cycleType="1"</a:t>
+            <a:t> cycleType="4"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3584,7 +3584,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> cycleType="2"</a:t>
+            <a:t> cycleType="3"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3603,7 +3603,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> cycleType="3"</a:t>
+            <a:t> cycleType="2"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3622,7 +3622,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> cycleType="4"</a:t>
+            <a:t> cycleType="1"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4150,7 +4150,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$2:$F$7" spid="_x0000_s1061"/>
+                  <a14:cameraTool cellRange="subsheet!$A$2:$F$7" spid="_x0000_s1065"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4210,7 +4210,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$11:$F$16" spid="_x0000_s1062"/>
+                  <a14:cameraTool cellRange="subsheet!$A$11:$F$16" spid="_x0000_s1066"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4270,7 +4270,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="subsheet!$A$20:$F$26" spid="_x0000_s1063"/>
+                  <a14:cameraTool cellRange="subsheet!$A$20:$F$26" spid="_x0000_s1067"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6658,11 +6658,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6805,7 +6805,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
@@ -6923,7 +6923,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="40" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>44</v>
       </c>
